--- a/SFModDataExtractor/Notes.xlsx
+++ b/SFModDataExtractor/Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plent\source\satisfactoryRecipeExtractor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plent\source\SFModDataTool\SFModDataExtractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A18682-58CB-4967-B605-BF57EA93FFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05011EE1-DAAA-48B0-BD5E-67198C3CEC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9D00B251-AE70-4307-8B64-A66456AEB147}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
   <si>
     <t>Required</t>
   </si>
@@ -69,18 +69,12 @@
     <t>Simple Constructor</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Tier</t>
   </si>
   <si>
     <t>0-2</t>
   </si>
   <si>
-    <t>Probably just set this to 0-0 it'll be fine</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>always 2? required if the other 2 shard fields exist?</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>Too long</t>
   </si>
   <si>
-    <t>Couldn't find a proper name (table Buildables_Data)</t>
-  </si>
-  <si>
     <t>Recipes</t>
   </si>
   <si>
@@ -258,12 +246,6 @@
     <t>[x].Properties.mVariablePowerConsumptionFactor</t>
   </si>
   <si>
-    <t>2000.0</t>
-  </si>
-  <si>
-    <t>Just set this to false</t>
-  </si>
-  <si>
     <t>Count/170</t>
   </si>
   <si>
@@ -285,9 +267,6 @@
     <t>[x].Properties.mDisplayName</t>
   </si>
   <si>
-    <t>Items_Data table</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -309,17 +288,81 @@
     <t>How about no</t>
   </si>
   <si>
-    <t>Didn't crash when I left this out. Probably just set this to 0-0 it'll be fine</t>
-  </si>
-  <si>
-    <t>[x].ItemClass.ObjectPath + [x].Amount</t>
+    <t>[x].Properties.mBasePowerProduction</t>
+  </si>
+  <si>
+    <t>[x].Properties.mBaseBoostPercentage</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Items_Data csv table</t>
+  </si>
+  <si>
+    <t>Schematic</t>
+  </si>
+  <si>
+    <t>always 2?</t>
+  </si>
+  <si>
+    <t>Buildables_Data csv table</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>[x].Properties.mVariablePowerConsumptionConstant</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>AveragePower = -1 * (mVariablePowerConsumptionFactor/2 + mVariablePowerConsumptionConstant)</t>
+  </si>
+  <si>
+    <t>MinPower = -1 * (mVariablePowerConsumptionConstant + mVariablePowerConsumptionFactor)</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>*.png</t>
+  </si>
+  <si>
+    <t>UTexture2D</t>
+  </si>
+  <si>
+    <t>[x]Properties.mSmallIcon.ObjectPath</t>
+  </si>
+  <si>
+    <t>See GetTexture function for parsing</t>
+  </si>
+  <si>
+    <t>[x].Properties.mBoostPercentage + [x].Properties.mBaseBoostPercentage</t>
+  </si>
+  <si>
+    <t>only Alien Power Augmenter, reference mDefaultFuelClasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Properties.mStackSize": "EStackSize::SS_FLUID",
+      "Properties.mForm": "EResourceForm::RF_LIQUID",</t>
+  </si>
+  <si>
+    <t>Reference one of these fields to properly set fluid quantities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,13 +378,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,18 +408,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,22 +739,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E64E09E-0C52-4C18-B2A9-FD968F381E92}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -706,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -750,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -761,33 +823,33 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>-4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -795,22 +857,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="1">
         <v>1.3219289999999999</v>
@@ -818,213 +880,249 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1032,25 +1130,25 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1058,22 +1156,25 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>61</v>
+      <c r="F20" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1081,179 +1182,173 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>63</v>
+      <c r="F21" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1261,16 +1356,25 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1278,48 +1382,102 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
